--- a/Data.xlsx
+++ b/Data.xlsx
@@ -46,10 +46,10 @@
     <t xml:space="preserve">ExpertAgent, BRAgent, StatAgent as res against ExpertAgent, BBAgent as spy</t>
   </si>
   <si>
-    <t xml:space="preserve">BBAgent is BayeBehaviourAgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAgent is BayeRuleAgent</t>
+    <t xml:space="preserve">BBAgent refers to BayeBehaviourAgent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAgent refers to BayeRuleAgent</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -170,7 +170,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
@@ -316,7 +316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
